--- a/position_data.xlsx
+++ b/position_data.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
